--- a/src/main/webapp/STATIC/SQL设计/SQL设计文档.xlsx
+++ b/src/main/webapp/STATIC/SQL设计/SQL设计文档.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,8 +210,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -224,7 +252,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -299,6 +327,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -334,6 +379,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -513,7 +575,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
